--- a/data/trans_camb/P43E-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Dificultad-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>-8.830586893346302</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-3.652000837864128</v>
+        <v>-3.652000837864125</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.57433383847776</v>
+        <v>-12.31088093913091</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.102759304403836</v>
+        <v>-8.037934798676309</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.397259629159958</v>
+        <v>-5.371898582065306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.559273913211853</v>
+        <v>1.703054874325345</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.5311133510806226</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.2196486401836705</v>
+        <v>-0.2196486401836703</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6586969583282231</v>
+        <v>-0.6556916832675125</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4440828810629695</v>
+        <v>-0.4503954075755364</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3611654215630823</v>
+        <v>-0.3693955909958723</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1057960047680942</v>
+        <v>0.113398945439929</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>-6.595026351622243</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.697824122548448</v>
+        <v>-6.697824122548446</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.43378641958247</v>
+        <v>-10.69402218838102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.63301865958391</v>
+        <v>-11.41601065022951</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.22959101881704</v>
+        <v>-1.96790631233679</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.881158835463942</v>
+        <v>-2.537502040864406</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>-0.2960150189450607</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.3006290542022125</v>
+        <v>-0.3006290542022124</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4648167585773212</v>
+        <v>-0.4446086064104974</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4364411509434838</v>
+        <v>-0.4620158013496832</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1109697393460363</v>
+        <v>-0.09646340844428682</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09119402955861569</v>
+        <v>-0.1299677090747064</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.638560528901726</v>
+        <v>-9.496642943049737</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.184338751700786</v>
+        <v>-5.229896633589552</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.558245741828474</v>
+        <v>1.655694625639244</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.767738360702651</v>
+        <v>4.970652468023005</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3498128344920083</v>
+        <v>-0.3427313807606022</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1896445671695195</v>
+        <v>-0.1918757526559394</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07179817992039067</v>
+        <v>0.08600053632873179</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2240032660971585</v>
+        <v>0.2304534922864838</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-7.1639265819747</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.003835898885077</v>
+        <v>3.003835898885082</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.64105982573542</v>
+        <v>-15.01807732668675</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.235236947333457</v>
+        <v>-4.546600059470124</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6711772891207433</v>
+        <v>0.3071905945034292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.35370844993761</v>
+        <v>10.06119588101619</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.1907453930162067</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.07997958277946073</v>
+        <v>0.07997958277946086</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3593831259741841</v>
+        <v>-0.3579938992485726</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1032387067682493</v>
+        <v>-0.1074962275376535</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03459337265030182</v>
+        <v>0.009813196768893266</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3159869670703556</v>
+        <v>0.3065143948372533</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-6.682847608319006</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.574037740563866</v>
+        <v>1.574037740563861</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.360674338893507</v>
+        <v>-9.280823372733348</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.185547520735189</v>
+        <v>-1.027756794676336</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.227762124518615</v>
+        <v>-4.385433663074568</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.099661181181271</v>
+        <v>3.944884478789924</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.2897444310207273</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.06824466100006543</v>
+        <v>0.06824466100006518</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3795250290415924</v>
+        <v>-0.3783118072353936</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04767803087754062</v>
+        <v>-0.0424974138917758</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1850588115629222</v>
+        <v>-0.1997936332640526</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1889680666060029</v>
+        <v>0.1829940470452465</v>
       </c>
     </row>
     <row r="34">
